--- a/2021-04-30/web_tables/forecast_ind_prod_wide.xlsx
+++ b/2021-04-30/web_tables/forecast_ind_prod_wide.xlsx
@@ -387,115 +387,115 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>апрель 2021</t>
+          <t>март 2021</t>
         </is>
       </c>
       <c r="B2">
-        <v>91.09999999999999</v>
+        <v>107.4</v>
       </c>
       <c r="C2">
-        <v>90.49</v>
+        <v>107.98</v>
       </c>
       <c r="D2">
-        <v>94.81</v>
+        <v>110.1</v>
       </c>
       <c r="E2">
-        <v>92.59999999999999</v>
+        <v>107.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>май 2021</t>
+          <t>апрель 2021</t>
         </is>
       </c>
       <c r="B3">
-        <v>94.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C3">
-        <v>93.73</v>
+        <v>91.56</v>
       </c>
       <c r="D3">
-        <v>98.86</v>
+        <v>94.77</v>
       </c>
       <c r="E3">
-        <v>100.45</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>июнь 2021</t>
+          <t>май 2021</t>
         </is>
       </c>
       <c r="B4">
-        <v>103.1</v>
+        <v>94.2</v>
       </c>
       <c r="C4">
-        <v>102.73</v>
+        <v>94.56999999999999</v>
       </c>
       <c r="D4">
-        <v>102</v>
+        <v>99.06</v>
       </c>
       <c r="E4">
-        <v>100.3</v>
+        <v>97.29000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>июль 2021</t>
+          <t>июнь 2021</t>
         </is>
       </c>
       <c r="B5">
-        <v>103.5</v>
+        <v>103.1</v>
       </c>
       <c r="C5">
-        <v>103.21</v>
+        <v>103.4</v>
       </c>
       <c r="D5">
-        <v>101.25</v>
+        <v>101.83</v>
       </c>
       <c r="E5">
-        <v>102.84</v>
+        <v>103.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>август 2021</t>
+          <t>июль 2021</t>
         </is>
       </c>
       <c r="B6">
         <v>103.5</v>
       </c>
       <c r="C6">
-        <v>103.28</v>
+        <v>103.74</v>
       </c>
       <c r="D6">
-        <v>102.14</v>
+        <v>101.45</v>
       </c>
       <c r="E6">
-        <v>100.61</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>сентябрь 2021</t>
+          <t>август 2021</t>
         </is>
       </c>
       <c r="B7">
-        <v>101.3</v>
+        <v>103.5</v>
       </c>
       <c r="C7">
-        <v>101.13</v>
+        <v>103.7</v>
       </c>
       <c r="D7">
-        <v>100.72</v>
+        <v>102.26</v>
       </c>
       <c r="E7">
-        <v>101.77</v>
+        <v>102.99</v>
       </c>
     </row>
   </sheetData>
